--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1453,10 +1453,18 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="6">
+        <v>43941.0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3229.0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2970.0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>259.0</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1467,11 +1475,21 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>4.0</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-16T21:00:00.000Z</t>
+    <t>2020-04-20T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-20T21:00:00.000Z</t>
+    <t>2020-04-21T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1499,10 +1499,18 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="6">
+        <v>43942.0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3293.0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3029.0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>264.0</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1513,11 +1521,21 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="O24" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S24" s="8">
+        <v>6.0</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-21T21:00:00.000Z</t>
+    <t>2020-04-22T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1545,10 +1545,18 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="6">
+        <v>43943.0</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3397.0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3122.0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>275.0</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1559,11 +1567,21 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="O25" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S25" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-22T21:00:00.000Z</t>
+    <t>2020-04-23T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1591,10 +1591,18 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="6">
+        <v>43944.0</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3615.0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3333.0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>282.0</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1605,11 +1613,21 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="O26" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="P26" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S26" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-23T21:00:00.000Z</t>
+    <t>2020-04-26T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1637,10 +1637,18 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="6">
+        <v>43947.0</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3894.0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3600.0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>294.0</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1651,11 +1659,21 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="O27" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-26T21:00:00.000Z</t>
+    <t>2020-04-27T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1683,10 +1683,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="6">
+        <v>43948.0</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4022.0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3713.0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>309.0</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1697,11 +1705,21 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="O28" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="P28" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>9.0</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-27T21:00:00.000Z</t>
+    <t>2020-04-29T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1729,10 +1729,18 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="6">
+        <v>43950.0</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4278.0</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3961.0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>317.0</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1743,11 +1751,21 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="O29" s="8">
+        <v>178.0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-29T21:00:00.000Z</t>
+    <t>2020-04-30T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1775,10 +1775,18 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="6">
+        <v>43951.0</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4344.0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4024.0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>320.0</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1789,11 +1797,21 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="O30" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-04-30T21:00:00.000Z</t>
+    <t>2020-05-06T18:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1821,10 +1821,18 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="6">
+        <v>43957.0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5138.0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4797.0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>341.0</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1835,11 +1843,21 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="O31" s="8">
+        <v>224.0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-06T18:00:00.000Z</t>
+    <t>2020-05-11T14:40:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1867,10 +1867,18 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="6">
+        <v>43960.0</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5569.0</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5217.0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>352.0</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1881,11 +1889,21 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="O32" s="8">
+        <v>247.0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-11T14:40:00.000Z</t>
+    <t>2020-05-11T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1913,10 +1913,18 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="6">
+        <v>43962.0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5652.0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>5300.0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>352.0</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1927,11 +1935,21 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="O33" s="8">
+        <v>251.0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-11T21:00:00.000Z</t>
+    <t>2020-05-12T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -1959,10 +1959,18 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="6">
+        <v>43963.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5961.0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5605.0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>356.0</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1973,11 +1981,21 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="O34" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2005,10 +2005,18 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="6">
+        <v>43965.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6285.0</v>
+      </c>
+      <c r="C35" s="8">
+        <v>5927.0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2019,11 +2027,21 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="O35" s="8">
+        <v>283.0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -2033,7 +2051,7 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2048,7 +2066,6 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-12T21:00:00.000Z</t>
+    <t>2020-05-14T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-14T21:00:00.000Z</t>
+    <t>2020-05-21T20:18:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -98,6 +98,10 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック regular"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -139,6 +143,9 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2051,10 +2058,18 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="6">
+        <v>43971.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7335.0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6977.0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2065,10 +2080,21 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="O36" s="8">
+        <v>304.0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>35.0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>14.0</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2104,10 +2104,18 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="6">
+        <v>43972.0</v>
+      </c>
+      <c r="B37" s="7">
+        <v>7493.0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>7135.0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2118,11 +2126,21 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="O37" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>14.0</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2150,8 +2150,8 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-21T20:18:00.000Z</t>
+    <t>2020-05-26T21:11:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2150,10 +2150,18 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="6">
+        <v>43976.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7703.0</v>
+      </c>
+      <c r="C38" s="8">
+        <v>7345.0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2164,11 +2172,21 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="O38" s="8">
+        <v>318.0</v>
+      </c>
+      <c r="P38" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S38" s="8">
+        <v>15.0</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2196,10 +2196,18 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="6">
+        <v>43977.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>7773.0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>7415.0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2210,11 +2218,21 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="O39" s="8">
+        <v>322.0</v>
+      </c>
+      <c r="P39" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>16.0</v>
+      </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-26T21:11:00.000Z</t>
+    <t>2020-05-31T16:39:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2242,10 +2242,18 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="6">
+        <v>43979.0</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7933.0</v>
+      </c>
+      <c r="C40" s="8">
+        <v>7575.0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2256,11 +2264,21 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+      <c r="O40" s="8">
+        <v>323.0</v>
+      </c>
+      <c r="P40" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>17.0</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -2273,7 +2291,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-05-31T16:39:00.000Z</t>
+    <t>2020-06-02T16:03:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2288,10 +2288,18 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="6">
+        <v>43983.0</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8135.0</v>
+      </c>
+      <c r="C41" s="8">
+        <v>7777.0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2302,11 +2310,21 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="O41" s="8">
+        <v>325.0</v>
+      </c>
+      <c r="P41" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S41" s="8">
+        <v>17.0</v>
+      </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-02T16:03:00.000Z</t>
+    <t>2020-06-03T19:40:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2334,10 +2334,18 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="6">
+        <v>43984.0</v>
+      </c>
+      <c r="B42" s="7">
+        <v>8257.0</v>
+      </c>
+      <c r="C42" s="8">
+        <v>7899.0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2348,11 +2356,21 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
+      <c r="O42" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>17.0</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-03T19:40:00.000Z</t>
+    <t>2020-06-04T14:46:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2380,10 +2380,18 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="6">
+        <v>43986.0</v>
+      </c>
+      <c r="B43" s="7">
+        <v>8354.0</v>
+      </c>
+      <c r="C43" s="8">
+        <v>7996.0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2394,11 +2402,21 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="O43" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>17.0</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2426,10 +2426,18 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="6">
+        <v>43988.0</v>
+      </c>
+      <c r="B44" s="7">
+        <v>8435.0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8077.0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>358.0</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2440,11 +2448,21 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="O44" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="P44" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2472,10 +2472,18 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="6">
+        <v>43991.0</v>
+      </c>
+      <c r="B45" s="7">
+        <v>8644.0</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8285.0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>359.0</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2486,11 +2494,21 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
+      <c r="O45" s="8">
+        <v>334.0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S45" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-04T14:46:00.000Z</t>
+    <t>2020-06-09T22:55:00.000Z</t>
   </si>
   <si>
     <t>日付</t>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2518,10 +2518,18 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="6">
+        <v>43995.0</v>
+      </c>
+      <c r="B46" s="7">
+        <v>8953.0</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8953.0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>360.0</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2532,11 +2540,21 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="O46" s="8">
+        <v>338.0</v>
+      </c>
+      <c r="P46" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S46" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-09T22:55:00.000Z</t>
+    <t>2020-06-15T22:55:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2564,10 +2564,18 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="6">
+        <v>43997.0</v>
+      </c>
+      <c r="B47" s="7">
+        <v>9129.0</v>
+      </c>
+      <c r="C47" s="8">
+        <v>8769.0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>360.0</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2578,11 +2586,21 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
+      <c r="O47" s="8">
+        <v>338.0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S47" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-15T22:55:00.000Z</t>
+    <t>2020-06-23T14:51:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2610,10 +2610,18 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="6">
+        <v>44003.0</v>
+      </c>
+      <c r="B48" s="7">
+        <v>9653.0</v>
+      </c>
+      <c r="C48" s="8">
+        <v>9288.0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>365.0</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2624,11 +2632,21 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="O48" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S48" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-23T14:51:00.000Z</t>
+    <t>2020-06-25T19:43:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2656,10 +2656,18 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="6">
+        <v>44005.0</v>
+      </c>
+      <c r="B49" s="7">
+        <v>9818.0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>9453.0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>365.0</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2670,11 +2678,21 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
+      <c r="O49" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -2702,10 +2702,18 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="6">
+        <v>44011.0</v>
+      </c>
+      <c r="B50" s="7">
+        <v>10074.0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>9699.0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>375.0</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2716,11 +2724,21 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="O50" s="8">
+        <v>345.0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S50" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-06-25T19:43:00.000Z</t>
+    <t>2020-07-03T16:44:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2748,10 +2748,18 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="6">
+        <v>44013.0</v>
+      </c>
+      <c r="B51" s="7">
+        <v>10600.0</v>
+      </c>
+      <c r="C51" s="8">
+        <v>10214.0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>386.0</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2762,11 +2770,21 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="O51" s="8">
+        <v>347.0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-07-03T16:44:00.000Z</t>
+    <t>2020-07-07T16:44:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2794,10 +2794,18 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="6">
+        <v>44017.0</v>
+      </c>
+      <c r="B52" s="7">
+        <v>11133.0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>10729.0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>404.0</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2808,11 +2816,21 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
+      <c r="O52" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>2020-07-07T16:44:00.000Z</t>
+    <t>2020-07-11T18:15:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2840,10 +2840,18 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="6">
+        <v>44021.0</v>
+      </c>
+      <c r="B53" s="7">
+        <v>11599.0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>11179.0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>420.0</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2854,11 +2862,21 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
+      <c r="O53" s="8">
+        <v>362.0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S53" s="8">
+        <v>18.0</v>
+      </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-14T21:00:00.000Z</t>
+    <t>2020-07-15T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2939,10 +2939,18 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="19.5" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="7">
+        <v>44027.0</v>
+      </c>
+      <c r="B55" s="8">
+        <v>13115.0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12638.0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>477.0</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2953,12 +2961,24 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="O55" s="4">
+        <v>391.0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="T55" s="4">
+        <v>6.0</v>
+      </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-15T21:00:00.000Z</t>
+    <t>2020-07-16T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -2987,10 +2987,18 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="7">
+        <v>44028.0</v>
+      </c>
+      <c r="B56" s="8">
+        <v>13461.0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>12971.0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>490.0</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3001,12 +3009,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="O56" s="4">
+        <v>395.0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="T56" s="4">
+        <v>13.0</v>
+      </c>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-16T21:00:00.000Z</t>
+    <t>2020-07-19T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3035,10 +3035,18 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="7">
+        <v>44031.0</v>
+      </c>
+      <c r="B57" s="8">
+        <v>14205.0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>13666.0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>539.0</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3049,12 +3057,24 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="O57" s="4">
+        <v>403.0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="R57" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="T57" s="4">
+        <v>23.0</v>
+      </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-19T21:00:00.000Z</t>
+    <t>2020-07-20T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3083,10 +3083,18 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="7">
+        <v>44032.0</v>
+      </c>
+      <c r="B58" s="8">
+        <v>14454.0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>13888.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>566.0</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3097,12 +3105,24 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="O58" s="4">
+        <v>410.0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="T58" s="4">
+        <v>32.0</v>
+      </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-20T21:00:00.000Z</t>
+    <t>2020-07-21T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3131,10 +3131,18 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="7">
+        <v>44033.0</v>
+      </c>
+      <c r="B59" s="8">
+        <v>14909.0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>14323.0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>586.0</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3145,12 +3153,24 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="O59" s="4">
+        <v>422.0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="T59" s="4">
+        <v>36.0</v>
+      </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-21T21:00:00.000Z</t>
+    <t>2020-07-26T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3179,10 +3179,18 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="7">
+        <v>44038.0</v>
+      </c>
+      <c r="B60" s="8">
+        <v>16392.0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>15735.0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>657.0</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3193,12 +3201,24 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="O60" s="4">
+        <v>452.0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>101.0</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="R60" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="S60" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="T60" s="4">
+        <v>23.0</v>
+      </c>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-26T21:00:00.000Z</t>
+    <t>2020-07-27T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3227,10 +3227,18 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="7">
+        <v>44039.0</v>
+      </c>
+      <c r="B61" s="8">
+        <v>16612.0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>15935.0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>677.0</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3241,12 +3249,24 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="O61" s="4">
+        <v>466.0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>109.0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="S61" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T61" s="4">
+        <v>24.0</v>
+      </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-27T21:00:00.000Z</t>
+    <t>2020-07-28T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3275,10 +3275,18 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="19.5" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="7">
+        <v>44040.0</v>
+      </c>
+      <c r="B62" s="8">
+        <v>16927.0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>16219.0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>708.0</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3289,12 +3297,24 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="O62" s="4">
+        <v>478.0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="S62" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T62" s="4">
+        <v>36.0</v>
+      </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-28T21:00:00.000Z</t>
+    <t>2020-07-29T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3323,10 +3323,18 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="19.5" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="7">
+        <v>44041.0</v>
+      </c>
+      <c r="B63" s="8">
+        <v>17369.0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>16620.0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>749.0</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3337,12 +3345,24 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="O63" s="4">
+        <v>491.0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="R63" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="S63" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T63" s="4">
+        <v>60.0</v>
+      </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-29T21:00:00.000Z</t>
+    <t>2020-07-30T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3371,10 +3371,18 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="19.5" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="7">
+        <v>44042.0</v>
+      </c>
+      <c r="B64" s="8">
+        <v>17749.0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>16991.0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>758.0</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3385,12 +3393,24 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="O64" s="4">
+        <v>528.0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="R64" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="S64" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T64" s="4">
+        <v>32.0</v>
+      </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-30T21:00:00.000Z</t>
+    <t>2020-07-02T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3419,10 +3419,18 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="19.5" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="7">
+        <v>44045.0</v>
+      </c>
+      <c r="B65" s="8">
+        <v>19088.0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>18262.0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>826.0</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3433,12 +3441,24 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="O65" s="4">
+        <v>553.0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="R65" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="S65" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T65" s="4">
+        <v>36.0</v>
+      </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-07-02T21:00:00.000Z</t>
+    <t>2020-08-03T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3467,10 +3467,18 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="19.5" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="7">
+        <v>44046.0</v>
+      </c>
+      <c r="B66" s="8">
+        <v>19482.0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>18627.0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>855.0</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3481,12 +3489,24 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="O66" s="4">
+        <v>579.0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>129.0</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="R66" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="S66" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="T66" s="4">
+        <v>33.0</v>
+      </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-03T21:00:00.000Z</t>
+    <t>2020-08-04T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3515,10 +3515,18 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" ht="19.5" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="7">
+        <v>44047.0</v>
+      </c>
+      <c r="B67" s="8">
+        <v>20163.0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>19287.0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>876.0</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3529,12 +3537,24 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="O67" s="4">
+        <v>615.0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>126.0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T67" s="4">
+        <v>30.0</v>
+      </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-04T21:00:00.000Z</t>
+    <t>2020-08-05T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3563,10 +3563,18 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="19.5" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="7">
+        <v>44048.0</v>
+      </c>
+      <c r="B68" s="8">
+        <v>20598.0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>19695.0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>903.0</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3577,12 +3585,24 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="O68" s="4">
+        <v>638.0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>122.0</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="R68" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="S68" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T68" s="4">
+        <v>43.0</v>
+      </c>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-05T21:00:00.000Z</t>
+    <t>2020-08-06T21:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3611,10 +3611,18 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="19.5" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="7">
+        <v>44049.0</v>
+      </c>
+      <c r="B69" s="8">
+        <v>20966.0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>20043.0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>923.0</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3625,12 +3633,24 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="O69" s="4">
+        <v>687.0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>99.0</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="S69" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T69" s="4">
+        <v>40.0</v>
+      </c>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-06T21:00:00.000Z</t>
+    <t>2020-08-11T17:26:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3659,10 +3659,19 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="19.5" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="7">
+        <v>44053.0</v>
+      </c>
+      <c r="B70" s="8">
+        <v>22576.0</v>
+      </c>
+      <c r="C70" s="4">
+        <f>B70-D70</f>
+        <v>21585</v>
+      </c>
+      <c r="D70" s="4">
+        <v>991.0</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3673,12 +3682,24 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="O70" s="4">
+        <v>776.0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>95.0</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="R70" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="S70" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T70" s="4">
+        <v>41.0</v>
+      </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -3745,7 +3766,7 @@
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-11T17:26:00.000Z</t>
+    <t>2020-08-12T23:30:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f>B70-D70</f>
+        <f t="shared" ref="C70:C71" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3708,10 +3708,19 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="19.5" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="7">
+        <v>44054.0</v>
+      </c>
+      <c r="B71" s="8">
+        <v>22826.0</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="1"/>
+        <v>21825</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1001.0</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3722,12 +3731,24 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="O71" s="4">
+        <v>793.0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="R71" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="S71" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T71" s="4">
+        <v>28.0</v>
+      </c>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-12T23:30:00.000Z</t>
+    <t>2020-08-13T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C71" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C72" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3757,10 +3757,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" ht="19.5" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="7">
+        <v>44055.0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>23171.0</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="1"/>
+        <v>22145</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1026.0</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3771,12 +3780,24 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="O72" s="4">
+        <v>811.0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>97.0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="R72" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T72" s="4">
+        <v>39.0</v>
+      </c>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-13T19:00:00.000Z</t>
+    <t>2020-08-14T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C72" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C73" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3806,10 +3806,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" ht="19.5" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="7">
+        <v>44056.0</v>
+      </c>
+      <c r="B73" s="8">
+        <v>23577.0</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="1"/>
+        <v>22516</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1061.0</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3820,12 +3829,24 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
+      <c r="O73" s="4">
+        <v>832.0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>99.0</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="S73" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T73" s="4">
+        <v>59.0</v>
+      </c>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-14T19:00:00.000Z</t>
+    <t>2020-08-17T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C73" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C74" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3855,10 +3855,19 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="19.5" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="7">
+        <v>44059.0</v>
+      </c>
+      <c r="B74" s="8">
+        <v>24839.0</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>23720</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1119.0</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3869,12 +3878,24 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="O74" s="4">
+        <v>898.0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>114.0</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R74" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S74" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T74" s="4">
+        <v>34.0</v>
+      </c>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C74" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C75" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3904,10 +3904,19 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="19.5" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="7">
+        <v>44060.0</v>
+      </c>
+      <c r="B75" s="8">
+        <v>25126.0</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>23988</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1138.0</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3918,12 +3927,24 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="O75" s="4">
+        <v>925.0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="S75" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T75" s="4">
+        <v>29.0</v>
+      </c>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C75" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C76" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -3953,10 +3953,19 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" ht="19.5" customHeight="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="7">
+        <v>44061.0</v>
+      </c>
+      <c r="B76" s="8">
+        <v>25679.0</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="1"/>
+        <v>24515</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1164.0</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3967,12 +3976,24 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="O76" s="4">
+        <v>943.0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>107.0</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="R76" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="S76" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T76" s="4">
+        <v>34.0</v>
+      </c>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-17T19:00:00.000Z</t>
+    <t>2020-08-20T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C76" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C77" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4002,10 +4002,19 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" ht="19.5" customHeight="1">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="7">
+        <v>44062.0</v>
+      </c>
+      <c r="B77" s="8">
+        <v>26172.0</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="1"/>
+        <v>24970</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1202.0</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4016,12 +4025,24 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="O77" s="4">
+        <v>960.0</v>
+      </c>
+      <c r="P77" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="R77" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="S77" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T77" s="4">
+        <v>53.0</v>
+      </c>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C77" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C78" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4051,10 +4051,19 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" ht="19.5" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="7">
+        <v>44063.0</v>
+      </c>
+      <c r="B78" s="8">
+        <v>26619.0</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="1"/>
+        <v>25376</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1243.0</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4065,12 +4074,24 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
+      <c r="O78" s="4">
+        <v>983.0</v>
+      </c>
+      <c r="P78" s="4">
+        <v>114.0</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="R78" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="S78" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T78" s="4">
+        <v>44.0</v>
+      </c>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-20T19:00:00.000Z</t>
+    <t>2020-08-21T20:21:00.000Z</t>
   </si>
   <si>
     <t>日付</t>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-21T20:21:00.000Z</t>
+    <t>2020-08-24T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C78" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C79" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4100,10 +4100,19 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" ht="19.5" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="7">
+        <v>44066.0</v>
+      </c>
+      <c r="B79" s="8">
+        <v>28036.0</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="1"/>
+        <v>26717</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1319.0</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4114,11 +4123,21 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
+      <c r="O79" s="4">
+        <v>1039.0</v>
+      </c>
+      <c r="P79" s="4">
+        <v>120.0</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="R79" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="S79" s="4">
+        <v>21.0</v>
+      </c>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-24T19:00:00.000Z</t>
+    <t>2020-08-25T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C79" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C80" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4147,10 +4147,19 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" ht="19.5" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="7">
+        <v>44067.0</v>
+      </c>
+      <c r="B80" s="8">
+        <v>28472.0</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="1"/>
+        <v>27146</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1326.0</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4161,12 +4170,24 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
+      <c r="O80" s="4">
+        <v>1086.0</v>
+      </c>
+      <c r="P80" s="4">
+        <v>117.0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="R80" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="S80" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="T80" s="4">
+        <v>14.0</v>
+      </c>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-25T19:00:00.000Z</t>
+    <t>2020-08-26T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C80" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C81" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4196,10 +4196,19 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" ht="19.5" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="7">
+        <v>44068.0</v>
+      </c>
+      <c r="B81" s="8">
+        <v>28882.0</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="1"/>
+        <v>27539</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1343.0</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4210,12 +4219,24 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
+      <c r="O81" s="4">
+        <v>1102.0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>109.0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="R81" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="S81" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="T81" s="4">
+        <v>25.0</v>
+      </c>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-26T19:00:00.000Z</t>
+    <t>2020-08-27T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3666,7 +3666,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C81" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C82" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4245,10 +4245,19 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" ht="19.5" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="7">
+        <v>44069.0</v>
+      </c>
+      <c r="B82" s="8">
+        <v>29424.0</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="1"/>
+        <v>28050</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1374.0</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4259,12 +4268,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
+      <c r="O82" s="4">
+        <v>1132.0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="R82" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="S82" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="T82" s="4">
+        <v>38.0</v>
+      </c>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -363,7 +363,12 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-27T19:00:00.000Z</t>
+    <t>2020-08-28T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -149,6 +149,15 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3671,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C82" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C83" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4299,10 +4308,19 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" ht="19.5" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="10">
+        <v>44070.0</v>
+      </c>
+      <c r="B83" s="11">
+        <v>29864.0</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="1"/>
+        <v>28463</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1401.0</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4313,12 +4331,24 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
+      <c r="O83" s="12">
+        <v>1154.0</v>
+      </c>
+      <c r="P83" s="12">
+        <v>106.0</v>
+      </c>
+      <c r="Q83" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="R83" s="12">
+        <v>46.0</v>
+      </c>
+      <c r="S83" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="T83" s="12">
+        <v>40.0</v>
+      </c>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -4357,7 +4357,7 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
-      <c r="A84" s="6"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="6"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-28T19:00:00.000Z</t>
+    <t>2020-08-30T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C83" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C84" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4357,10 +4357,19 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="10">
+        <v>44073.0</v>
+      </c>
+      <c r="B84" s="11">
+        <v>31282.0</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>29834</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1448.0</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4371,12 +4380,24 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
+      <c r="O84" s="12">
+        <v>1242.0</v>
+      </c>
+      <c r="P84" s="12">
+        <v>89.0</v>
+      </c>
+      <c r="Q84" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="R84" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="S84" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="T84" s="12">
+        <v>27.0</v>
+      </c>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-30T19:00:00.000Z</t>
+    <t>2020-08-31T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C84" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C85" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4406,10 +4406,19 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" ht="19.5" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="7">
+        <v>44074.0</v>
+      </c>
+      <c r="B85" s="8">
+        <v>31696.0</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>30244</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1452.0</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4420,12 +4429,24 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="O85" s="4">
+        <v>1260.0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>84.0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="R85" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="S85" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="T85" s="4">
+        <v>25.0</v>
+      </c>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-08-31T19:00:00.000Z</t>
+    <t>2020-09-01T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C85" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C86" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4455,10 +4455,19 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" ht="19.5" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="10">
+        <v>44075.0</v>
+      </c>
+      <c r="B86" s="11">
+        <v>32102.0</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>30628</v>
+      </c>
+      <c r="D86" s="12">
+        <v>1474.0</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -4469,12 +4478,24 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+      <c r="O86" s="12">
+        <v>1287.0</v>
+      </c>
+      <c r="P86" s="12">
+        <v>76.0</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="R86" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="S86" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="T86" s="12">
+        <v>34.0</v>
+      </c>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-01T19:00:00.000Z</t>
+    <t>2020-09-02T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C86" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C87" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4504,10 +4504,19 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" ht="19.5" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="10">
+        <v>44076.0</v>
+      </c>
+      <c r="B87" s="11">
+        <v>32485.0</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>30992</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1493.0</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4518,12 +4527,24 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
+      <c r="O87" s="12">
+        <v>1317.0</v>
+      </c>
+      <c r="P87" s="12">
+        <v>78.0</v>
+      </c>
+      <c r="Q87" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="R87" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="S87" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T87" s="12">
+        <v>8.0</v>
+      </c>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-02T19:00:00.000Z</t>
+    <t>2020-09-03T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C87" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C88" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4553,10 +4553,19 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" ht="19.5" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="10">
+        <v>44077.0</v>
+      </c>
+      <c r="B88" s="11">
+        <v>32853.0</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>31341</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1512.0</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4567,12 +4576,24 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="O88" s="12">
+        <v>1340.0</v>
+      </c>
+      <c r="P88" s="12">
+        <v>78.0</v>
+      </c>
+      <c r="Q88" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="R88" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="S88" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T88" s="12">
+        <v>7.0</v>
+      </c>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-03T19:00:00.000Z</t>
+    <t>2020-09-06T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C88" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C89" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4602,10 +4602,19 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="10">
+        <v>44080.0</v>
+      </c>
+      <c r="B89" s="11">
+        <v>34050.0</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>32475</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1575.0</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -4616,12 +4625,24 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="O89" s="12">
+        <v>1388.0</v>
+      </c>
+      <c r="P89" s="12">
+        <v>85.0</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="R89" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="S89" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T89" s="12">
+        <v>18.0</v>
+      </c>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-06T19:00:00.000Z</t>
+    <t>2020-09-07T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C89" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C90" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4651,10 +4651,19 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" ht="19.5" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="10">
+        <v>44081.0</v>
+      </c>
+      <c r="B90" s="11">
+        <v>34296.0</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>32713</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1583.0</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4665,12 +4674,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
+      <c r="O90" s="12">
+        <v>1410.0</v>
+      </c>
+      <c r="P90" s="12">
+        <v>81.0</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="R90" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="S90" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T90" s="12">
+        <v>14.0</v>
+      </c>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-07T19:00:00.000Z</t>
+    <t>2020-09-08T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C90" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C91" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4700,10 +4700,19 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="10">
+        <v>44082.0</v>
+      </c>
+      <c r="B91" s="11">
+        <v>34873.0</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>33279</v>
+      </c>
+      <c r="D91" s="12">
+        <v>1594.0</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -4714,12 +4723,24 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
+      <c r="O91" s="12">
+        <v>1432.0</v>
+      </c>
+      <c r="P91" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="Q91" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="R91" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="S91" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T91" s="12">
+        <v>13.0</v>
+      </c>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-08T19:00:00.000Z</t>
+    <t>2020-09-09T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C91" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C92" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4749,10 +4749,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" ht="19.5" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="10">
+        <v>44083.0</v>
+      </c>
+      <c r="B92" s="11">
+        <v>35400.0</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>33800</v>
+      </c>
+      <c r="D92" s="12">
+        <v>1600.0</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4763,12 +4772,24 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="O92" s="12">
+        <v>1444.0</v>
+      </c>
+      <c r="P92" s="12">
+        <v>76.0</v>
+      </c>
+      <c r="Q92" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="R92" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="S92" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T92" s="12">
+        <v>10.0</v>
+      </c>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-09T19:00:00.000Z</t>
+    <t>2020-09-10T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C92" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C93" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4798,10 +4798,19 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" ht="19.5" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="10">
+        <v>44084.0</v>
+      </c>
+      <c r="B93" s="11">
+        <v>35628.0</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>34021</v>
+      </c>
+      <c r="D93" s="12">
+        <v>1607.0</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -4812,12 +4821,24 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="O93" s="12">
+        <v>1474.0</v>
+      </c>
+      <c r="P93" s="12">
+        <v>61.0</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="R93" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="S93" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T93" s="12">
+        <v>9.0</v>
+      </c>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-10T19:00:00.000Z</t>
+    <t>2020-09-13T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C93" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C94" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4847,10 +4847,19 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" ht="19.5" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="10">
+        <v>44087.0</v>
+      </c>
+      <c r="B94" s="11">
+        <v>36630.0</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>35006</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1624.0</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4861,12 +4870,24 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="O94" s="12">
+        <v>1508.0</v>
+      </c>
+      <c r="P94" s="12">
+        <v>63.0</v>
+      </c>
+      <c r="Q94" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R94" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="S94" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T94" s="12">
+        <v>4.0</v>
+      </c>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-13T19:00:00.000Z</t>
+    <t>2020-09-14T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C94" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C95" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4896,10 +4896,19 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" ht="19.5" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="10">
+        <v>44088.0</v>
+      </c>
+      <c r="B95" s="11">
+        <v>36834.0</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>35206</v>
+      </c>
+      <c r="D95" s="12">
+        <v>1628.0</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4910,12 +4919,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
+      <c r="O95" s="12">
+        <v>1521.0</v>
+      </c>
+      <c r="P95" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="Q95" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="R95" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="S95" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T95" s="12">
+        <v>1.0</v>
+      </c>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-14T19:00:00.000Z</t>
+    <t>2020-09-16T19:00:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C95" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C96" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4945,10 +4945,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" ht="19.5" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="10">
+        <v>44090.0</v>
+      </c>
+      <c r="B96" s="11">
+        <v>37666.0</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>36016</v>
+      </c>
+      <c r="D96" s="12">
+        <v>1650.0</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4959,12 +4968,24 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="O96" s="12">
+        <v>1549.0</v>
+      </c>
+      <c r="P96" s="12">
+        <v>57.0</v>
+      </c>
+      <c r="Q96" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="R96" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="S96" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T96" s="12">
+        <v>2.0</v>
+      </c>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>2020-09-16T19:00:00.000Z</t>
+    <t>2020-09-18T19:58:00.000Z</t>
   </si>
   <si>
     <t>日付</t>
@@ -3680,7 +3680,7 @@
         <v>22576.0</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ref="C70:C96" si="1">B70-D70</f>
+        <f t="shared" ref="C70:C97" si="1">B70-D70</f>
         <v>21585</v>
       </c>
       <c r="D70" s="4">
@@ -4994,10 +4994,19 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" ht="19.5" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="A97" s="10">
+        <v>44091.0</v>
+      </c>
+      <c r="B97" s="11">
+        <v>38110.0</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>36451</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1659.0</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -5008,12 +5017,24 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="O97" s="12">
+        <v>1554.0</v>
+      </c>
+      <c r="P97" s="12">
+        <v>62.0</v>
+      </c>
+      <c r="Q97" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="R97" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="S97" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="T97" s="12">
+        <v>2.0</v>
+      </c>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
